--- a/FirmOrders-Boot/src/main/resources/templates/excel-template/订单数据模板.xlsx
+++ b/FirmOrders-Boot/src/main/resources/templates/excel-template/订单数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="2010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>成单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +207,38 @@
   </si>
   <si>
     <t>#productBarCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#receiverArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#receiverCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#receiverProvince</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,18 +596,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9296875" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="27" max="27" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -596,61 +633,73 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -670,79 +719,91 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>45</v>
       </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
